--- a/testcases_starter.xlsx
+++ b/testcases_starter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfinegan/Documents/Teaching/CurrentCourses/CMSC301_Fall2025/Project/Checkpoint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyiming/Desktop/CMSC301Codes/Project_Checkpoint/Checkpoint2/cpu-processor-cmsc301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B071DFFC-4960-A941-B847-DE4F4626E05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D8F23-7906-BB4D-BD16-575AF46D53E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{35D5102D-44C0-204E-B01C-A98D67830E8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Required setup</t>
   </si>
@@ -60,13 +60,61 @@
   </si>
   <si>
     <t>0x000a5880</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>addi $s0, $zero, 100</t>
+  </si>
+  <si>
+    <t>0x20100064</t>
+  </si>
+  <si>
+    <t># $s0 = 0 + 100 = 100</t>
+  </si>
+  <si>
+    <t>Set $s0 to 6</t>
+  </si>
+  <si>
+    <t>mult $s0, $s0</t>
+  </si>
+  <si>
+    <t>0x02100018</t>
+  </si>
+  <si>
+    <t># LO = 6 * 6 = 36</t>
+  </si>
+  <si>
+    <t>Set LO to 36</t>
+  </si>
+  <si>
+    <t>mflo $v0</t>
+  </si>
+  <si>
+    <t>0x00001012</t>
+  </si>
+  <si>
+    <t># $v0 = LO = 36</t>
+  </si>
+  <si>
+    <t>Set $t1 to 6; set $t0 to 7</t>
+  </si>
+  <si>
+    <t>slt $s2, $t1, $t0</t>
+  </si>
+  <si>
+    <t>0x0128902a</t>
+  </si>
+  <si>
+    <t># $s2 = 1 (because $t1 = 6 &lt; $t0 = 7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +124,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -102,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD8118-1B51-B941-9687-8518B9C0FED1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,6 +536,62 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testcases_starter.xlsx
+++ b/testcases_starter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyiming/Desktop/CMSC301Codes/Project_Checkpoint/Checkpoint2/cpu-processor-cmsc301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D8F23-7906-BB4D-BD16-575AF46D53E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D36094-E6AC-BC44-9275-8C576937495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{35D5102D-44C0-204E-B01C-A98D67830E8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Required setup</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t># $s2 = 1 (because $t1 = 6 &lt; $t0 = 7)</t>
+  </si>
+  <si>
+    <t>addi $t2, $zero, 7</t>
+  </si>
+  <si>
+    <t>div $t2, $t0</t>
+  </si>
+  <si>
+    <t>Set $t2 to 7; set $t0 to 6</t>
+  </si>
+  <si>
+    <t># LO = 7 // 6 = 1, HI = 7 % 6 = 1</t>
+  </si>
+  <si>
+    <t>0x0148001a</t>
   </si>
 </sst>
 </file>
@@ -494,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD8118-1B51-B941-9687-8518B9C0FED1}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,74 +537,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/testcases_starter.xlsx
+++ b/testcases_starter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyiming/Desktop/CMSC301Codes/Project_Checkpoint/Checkpoint2/cpu-processor-cmsc301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D36094-E6AC-BC44-9275-8C576937495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8ABD78-C35B-E247-9D24-02387B02C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{35D5102D-44C0-204E-B01C-A98D67830E8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Required setup</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Set $t2 to 7</t>
   </si>
   <si>
-    <t xml:space="preserve">sll  $t3, $t2, 2        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> # $t3 = 7 &lt;&lt; 2 = 28</t>
-  </si>
-  <si>
     <t>0x000a5880</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t># $s2 = 1 (because $t1 = 6 &lt; $t0 = 7)</t>
   </si>
   <si>
-    <t>addi $t2, $zero, 7</t>
-  </si>
-  <si>
     <t>div $t2, $t0</t>
   </si>
   <si>
@@ -123,6 +114,99 @@
   </si>
   <si>
     <t>0x0148001a</t>
+  </si>
+  <si>
+    <t>sll  $t3, $t2, 2        </t>
+  </si>
+  <si>
+    <t> # $t3 = 7 &lt;&lt; 2 = 28</t>
+  </si>
+  <si>
+    <t>Set $t0 to 9; set $t1 to 12</t>
+  </si>
+  <si>
+    <t>and $t2, $t0, $t1</t>
+  </si>
+  <si>
+    <t>0x01095024</t>
+  </si>
+  <si>
+    <t># $t2 = 8 (1000)</t>
+  </si>
+  <si>
+    <t>Set $t0 to 9; set $t1 to 13</t>
+  </si>
+  <si>
+    <t>or $t2, $t0, $t1</t>
+  </si>
+  <si>
+    <t>0x01095025</t>
+  </si>
+  <si>
+    <t># $t2 = 13 (1101)</t>
+  </si>
+  <si>
+    <t>Set $t0 to 9; set $t1 to 14</t>
+  </si>
+  <si>
+    <t>nor $t2, $t0, $t1</t>
+  </si>
+  <si>
+    <t>0x01095027</t>
+  </si>
+  <si>
+    <t># $t2 = 2 (0010)</t>
+  </si>
+  <si>
+    <t>Set $t0 to 9; set $t1 to 15</t>
+  </si>
+  <si>
+    <t>xor $t2, $t0, $t1</t>
+  </si>
+  <si>
+    <t>0x01095026</t>
+  </si>
+  <si>
+    <t># $t2 = 5 (0101)</t>
+  </si>
+  <si>
+    <t>Set $t0 to 9</t>
+  </si>
+  <si>
+    <t>andi $t2, $t0, 3</t>
+  </si>
+  <si>
+    <t>0x310a0003</t>
+  </si>
+  <si>
+    <t># $t2 = 1 (0001)</t>
+  </si>
+  <si>
+    <t>ori $t2, $t0, 3</t>
+  </si>
+  <si>
+    <t>0x350a0003</t>
+  </si>
+  <si>
+    <t># $t2 = 11 (1011)</t>
+  </si>
+  <si>
+    <t>xori $t2, $t0, 3</t>
+  </si>
+  <si>
+    <t>0x390a0003</t>
+  </si>
+  <si>
+    <t># $t2 = 10 (1010)</t>
+  </si>
+  <si>
+    <t>lui $t2, 3</t>
+  </si>
+  <si>
+    <t>0x3c0a0003</t>
+  </si>
+  <si>
+    <t># $t2 = 0x00030000</t>
   </si>
 </sst>
 </file>
@@ -509,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD8118-1B51-B941-9687-8518B9C0FED1}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,95 +622,199 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/testcases_starter.xlsx
+++ b/testcases_starter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangyiming/Desktop/CMSC301Codes/Project_Checkpoint/Checkpoint2/cpu-processor-cmsc301/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnathanson/Documents/College/Classes/Sophomore/Fall/CMSC301/Project/Checkpoint 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8ABD78-C35B-E247-9D24-02387B02C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72ABC4-5F8E-414A-AEF8-7EB2ADE38F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{35D5102D-44C0-204E-B01C-A98D67830E8C}"/>
+    <workbookView xWindow="1180" yWindow="840" windowWidth="24420" windowHeight="17360" xr2:uid="{35D5102D-44C0-204E-B01C-A98D67830E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Required setup</t>
   </si>
@@ -134,9 +134,6 @@
     <t># $t2 = 8 (1000)</t>
   </si>
   <si>
-    <t>Set $t0 to 9; set $t1 to 13</t>
-  </si>
-  <si>
     <t>or $t2, $t0, $t1</t>
   </si>
   <si>
@@ -146,21 +143,12 @@
     <t># $t2 = 13 (1101)</t>
   </si>
   <si>
-    <t>Set $t0 to 9; set $t1 to 14</t>
-  </si>
-  <si>
     <t>nor $t2, $t0, $t1</t>
   </si>
   <si>
     <t>0x01095027</t>
   </si>
   <si>
-    <t># $t2 = 2 (0010)</t>
-  </si>
-  <si>
-    <t>Set $t0 to 9; set $t1 to 15</t>
-  </si>
-  <si>
     <t>xor $t2, $t0, $t1</t>
   </si>
   <si>
@@ -207,6 +195,9 @@
   </si>
   <si>
     <t># $t2 = 0x00030000</t>
+  </si>
+  <si>
+    <t># $t2 = -14 (leading 1's)</t>
   </si>
 </sst>
 </file>
@@ -235,12 +226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,10 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD8118-1B51-B941-9687-8518B9C0FED1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +620,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -636,7 +634,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -650,7 +648,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -664,7 +662,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -678,7 +676,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -692,7 +690,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -706,7 +704,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -720,101 +718,101 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
